--- a/data/trans_orig/POLIPATOLOGIA-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/POLIPATOLOGIA-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D8A82A2-57BB-4079-9ED9-CEE81A8A827D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF1225B7-F993-4253-ADD6-2BE3FEFD4305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9D7F2AF0-012C-4304-BAE7-2BCE65C8D625}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{504EE5DB-CBE7-4B43-9714-D354FF2FCD32}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="441">
   <si>
     <t>Población con dos o más enfermedades crónicas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,1261 +77,1291 @@
     <t>20,05%</t>
   </si>
   <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
   </si>
   <si>
     <t>32,06%</t>
   </si>
   <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
   </si>
   <si>
     <t>25,98%</t>
   </si>
   <si>
-    <t>20,56%</t>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con dos o más enfermedades crónicas en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
   </si>
   <si>
     <t>32,08%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
   </si>
   <si>
     <t>67,92%</t>
   </si>
   <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>62,7%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>70,86%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con dos o más enfermedades crónicas en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>59,7%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>47,32%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>56,87%</t>
-  </si>
-  <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
-  </si>
-  <si>
     <t>23,96%</t>
   </si>
   <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
   </si>
   <si>
     <t>38,03%</t>
   </si>
   <si>
-    <t>34,51%</t>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>70,97%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>Población con dos o más enfermedades crónicas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
+  </si>
+  <si>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>76,8%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>62,64%</t>
+  </si>
+  <si>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>Población con dos o más enfermedades crónicas en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
   </si>
   <si>
     <t>41,23%</t>
   </si>
   <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
   </si>
   <si>
     <t>58,77%</t>
   </si>
   <si>
-    <t>65,49%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>59,68%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>Población con dos o más enfermedades crónicas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>65,25%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>62,64%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>67,61%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>Población con dos o más enfermedades crónicas en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
+    <t>66,96%</t>
   </si>
   <si>
     <t>54,78%</t>
   </si>
   <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
   </si>
   <si>
     <t>58,67%</t>
   </si>
   <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>62,04%</t>
   </si>
   <si>
     <t>27,86%</t>
   </si>
   <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
   </si>
   <si>
     <t>44,72%</t>
   </si>
   <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
   </si>
   <si>
     <t>36,37%</t>
   </si>
   <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
   </si>
   <si>
     <t>72,14%</t>
   </si>
   <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
   </si>
   <si>
     <t>55,28%</t>
   </si>
   <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
   </si>
   <si>
     <t>63,63%</t>
   </si>
   <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>66,74%</t>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
   </si>
   <si>
     <t>33,17%</t>
   </si>
   <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
   </si>
   <si>
     <t>52,29%</t>
   </si>
   <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
   </si>
   <si>
     <t>43,6%</t>
   </si>
   <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>56,22%</t>
   </si>
   <si>
     <t>66,83%</t>
   </si>
   <si>
-    <t>62,98%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
   </si>
   <si>
     <t>47,71%</t>
   </si>
   <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
   </si>
   <si>
     <t>56,4%</t>
   </si>
   <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
   </si>
   <si>
     <t>34,81%</t>
   </si>
   <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
   </si>
   <si>
     <t>47,74%</t>
   </si>
   <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
   </si>
   <si>
     <t>41,84%</t>
   </si>
   <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
   </si>
   <si>
     <t>65,19%</t>
   </si>
   <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
   </si>
   <si>
     <t>52,26%</t>
   </si>
   <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
   </si>
   <si>
     <t>58,16%</t>
   </si>
   <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
   </si>
   <si>
     <t>47,72%</t>
   </si>
   <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
   </si>
   <si>
     <t>40,75%</t>
   </si>
   <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
   </si>
   <si>
     <t>52,28%</t>
   </si>
   <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
   </si>
   <si>
     <t>59,25%</t>
   </si>
   <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>60,86%</t>
   </si>
 </sst>
 </file>
@@ -1743,7 +1773,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9973B041-E3DF-42C6-9DB3-57B08A61B8C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35296A01-951B-4848-929F-B4BB70B645F2}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2657,13 +2687,13 @@
         <v>1132361</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>1763</v>
@@ -2672,13 +2702,13 @@
         <v>1780344</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2693,13 +2723,13 @@
         <v>2628561</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>2196</v>
@@ -2708,28 +2738,28 @@
         <v>2246837</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>4748</v>
       </c>
       <c r="N20" s="7">
-        <v>4875396</v>
+        <v>4875397</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2771,7 +2801,7 @@
         <v>6511</v>
       </c>
       <c r="N21" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2785,7 +2815,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2806,7 +2836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D222F5-E654-4FCA-A618-325E2E957BB0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87024485-5C43-43FD-AA11-C589D96C2C53}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2823,7 +2853,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2930,13 +2960,13 @@
         <v>24532</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>46</v>
@@ -2945,13 +2975,13 @@
         <v>51534</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>73</v>
@@ -2960,13 +2990,13 @@
         <v>76066</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2981,13 +3011,13 @@
         <v>91233</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H5" s="7">
         <v>53</v>
@@ -2996,13 +3026,13 @@
         <v>60371</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>148</v>
@@ -3011,13 +3041,13 @@
         <v>151604</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3085,13 +3115,13 @@
         <v>156719</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H7" s="7">
         <v>236</v>
@@ -3100,13 +3130,13 @@
         <v>252384</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>379</v>
@@ -3115,13 +3145,13 @@
         <v>409103</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3136,13 +3166,13 @@
         <v>430985</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>315</v>
@@ -3151,13 +3181,13 @@
         <v>332761</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>724</v>
@@ -3166,13 +3196,13 @@
         <v>763746</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3240,13 +3270,13 @@
         <v>243885</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H10" s="7">
         <v>359</v>
@@ -3255,13 +3285,13 @@
         <v>392591</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M10" s="7">
         <v>582</v>
@@ -3270,13 +3300,13 @@
         <v>636476</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>59</v>
+        <v>170</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3291,13 +3321,13 @@
         <v>774062</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H11" s="7">
         <v>581</v>
@@ -3306,13 +3336,13 @@
         <v>639593</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="M11" s="7">
         <v>1294</v>
@@ -3321,13 +3351,13 @@
         <v>1413655</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>67</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3395,13 +3425,13 @@
         <v>163289</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H13" s="7">
         <v>245</v>
@@ -3410,13 +3440,13 @@
         <v>267639</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="M13" s="7">
         <v>388</v>
@@ -3425,13 +3455,13 @@
         <v>430928</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>185</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3446,13 +3476,13 @@
         <v>594334</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H14" s="7">
         <v>460</v>
@@ -3461,13 +3491,13 @@
         <v>509535</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M14" s="7">
         <v>1006</v>
@@ -3476,13 +3506,13 @@
         <v>1103869</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>155</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3550,13 +3580,13 @@
         <v>244429</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H16" s="7">
         <v>393</v>
@@ -3565,13 +3595,13 @@
         <v>412429</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M16" s="7">
         <v>618</v>
@@ -3580,13 +3610,13 @@
         <v>656858</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3601,13 +3631,13 @@
         <v>703310</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H17" s="7">
         <v>610</v>
@@ -3616,13 +3646,13 @@
         <v>639472</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M17" s="7">
         <v>1295</v>
@@ -3631,13 +3661,13 @@
         <v>1342782</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3708,10 +3738,10 @@
         <v>213</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>144</v>
+        <v>214</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H19" s="7">
         <v>1279</v>
@@ -3720,13 +3750,13 @@
         <v>1376577</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M19" s="7">
         <v>2040</v>
@@ -3735,13 +3765,13 @@
         <v>2209431</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3756,13 +3786,13 @@
         <v>2593925</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>154</v>
+        <v>224</v>
       </c>
       <c r="H20" s="7">
         <v>2019</v>
@@ -3771,13 +3801,13 @@
         <v>2181732</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M20" s="7">
         <v>4467</v>
@@ -3786,13 +3816,13 @@
         <v>4775657</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3848,7 +3878,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3869,7 +3899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E08F55C-5565-4B0D-BC25-1FDDF50709CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BFFE61B-3951-44A2-A34F-6D0CE1E78776}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3886,7 +3916,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3993,13 +4023,13 @@
         <v>32739</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H4" s="7">
         <v>45</v>
@@ -4008,13 +4038,13 @@
         <v>47160</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M4" s="7">
         <v>77</v>
@@ -4023,13 +4053,13 @@
         <v>79899</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,13 +4074,13 @@
         <v>83807</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H5" s="7">
         <v>70</v>
@@ -4059,13 +4089,13 @@
         <v>66200</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M5" s="7">
         <v>151</v>
@@ -4074,13 +4104,13 @@
         <v>150007</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4148,13 +4178,13 @@
         <v>123371</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H7" s="7">
         <v>195</v>
@@ -4163,13 +4193,13 @@
         <v>209498</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M7" s="7">
         <v>319</v>
@@ -4178,13 +4208,13 @@
         <v>332869</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4199,13 +4229,13 @@
         <v>434883</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H8" s="7">
         <v>356</v>
@@ -4214,13 +4244,13 @@
         <v>349981</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M8" s="7">
         <v>771</v>
@@ -4229,13 +4259,13 @@
         <v>784864</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4303,13 +4333,13 @@
         <v>237193</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H10" s="7">
         <v>344</v>
@@ -4318,13 +4348,13 @@
         <v>389674</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M10" s="7">
         <v>574</v>
@@ -4333,13 +4363,13 @@
         <v>626867</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4354,13 +4384,13 @@
         <v>785238</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H11" s="7">
         <v>633</v>
@@ -4369,13 +4399,13 @@
         <v>653239</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M11" s="7">
         <v>1354</v>
@@ -4384,13 +4414,13 @@
         <v>1438477</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4458,13 +4488,13 @@
         <v>167445</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H13" s="7">
         <v>217</v>
@@ -4473,13 +4503,13 @@
         <v>244499</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M13" s="7">
         <v>377</v>
@@ -4488,13 +4518,13 @@
         <v>411944</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4509,13 +4539,13 @@
         <v>592107</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="H14" s="7">
         <v>519</v>
@@ -4524,13 +4554,13 @@
         <v>540512</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M14" s="7">
         <v>1055</v>
@@ -4539,13 +4569,13 @@
         <v>1132619</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4613,13 +4643,13 @@
         <v>248861</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H16" s="7">
         <v>336</v>
@@ -4628,13 +4658,13 @@
         <v>388951</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>238</v>
+        <v>307</v>
       </c>
       <c r="M16" s="7">
         <v>587</v>
@@ -4643,13 +4673,13 @@
         <v>637812</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4664,13 +4694,13 @@
         <v>688706</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="H17" s="7">
         <v>623</v>
@@ -4679,13 +4709,13 @@
         <v>654828</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>246</v>
+        <v>315</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="M17" s="7">
         <v>1304</v>
@@ -4694,13 +4724,13 @@
         <v>1343534</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4768,13 +4798,13 @@
         <v>809608</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="H19" s="7">
         <v>1137</v>
@@ -4783,13 +4813,13 @@
         <v>1279781</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="M19" s="7">
         <v>1934</v>
@@ -4798,13 +4828,13 @@
         <v>2089390</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4819,13 +4849,13 @@
         <v>2584742</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="H20" s="7">
         <v>2201</v>
@@ -4834,13 +4864,13 @@
         <v>2264761</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M20" s="7">
         <v>4635</v>
@@ -4849,13 +4879,13 @@
         <v>4849502</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4911,7 +4941,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4932,7 +4962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD73819-CCA8-4D81-94BB-2C7A8D44793A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC87177-8652-44DD-8B7E-E927B1539183}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4949,7 +4979,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5056,13 +5086,13 @@
         <v>41716</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>218</v>
+        <v>338</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="H4" s="7">
         <v>140</v>
@@ -5071,13 +5101,13 @@
         <v>69541</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="M4" s="7">
         <v>194</v>
@@ -5086,13 +5116,13 @@
         <v>111256</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5107,13 +5137,13 @@
         <v>60266</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>226</v>
+        <v>348</v>
       </c>
       <c r="H5" s="7">
         <v>103</v>
@@ -5122,13 +5152,13 @@
         <v>61192</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="M5" s="7">
         <v>167</v>
@@ -5137,13 +5167,13 @@
         <v>121459</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5211,13 +5241,13 @@
         <v>203066</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="H7" s="7">
         <v>534</v>
@@ -5226,13 +5256,13 @@
         <v>280360</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="M7" s="7">
         <v>803</v>
@@ -5241,13 +5271,13 @@
         <v>483427</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5262,13 +5292,13 @@
         <v>346757</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="H8" s="7">
         <v>464</v>
@@ -5277,13 +5307,13 @@
         <v>339607</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="M8" s="7">
         <v>807</v>
@@ -5292,13 +5322,13 @@
         <v>686363</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5366,13 +5396,13 @@
         <v>289499</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="H10" s="7">
         <v>771</v>
@@ -5381,13 +5411,13 @@
         <v>474097</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="M10" s="7">
         <v>1113</v>
@@ -5396,13 +5426,13 @@
         <v>763596</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5417,13 +5447,13 @@
         <v>749749</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="H11" s="7">
         <v>746</v>
@@ -5432,13 +5462,13 @@
         <v>585982</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="M11" s="7">
         <v>1368</v>
@@ -5447,13 +5477,13 @@
         <v>1335731</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5521,13 +5551,13 @@
         <v>241751</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="H13" s="7">
         <v>518</v>
@@ -5536,13 +5566,13 @@
         <v>457188</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="M13" s="7">
         <v>775</v>
@@ -5551,13 +5581,13 @@
         <v>698939</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5572,13 +5602,13 @@
         <v>487021</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="H14" s="7">
         <v>529</v>
@@ -5587,13 +5617,13 @@
         <v>417183</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="M14" s="7">
         <v>948</v>
@@ -5602,13 +5632,13 @@
         <v>904203</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5676,13 +5706,13 @@
         <v>336054</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="H16" s="7">
         <v>811</v>
@@ -5691,13 +5721,13 @@
         <v>549215</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="M16" s="7">
         <v>1213</v>
@@ -5706,13 +5736,13 @@
         <v>885269</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5727,13 +5757,13 @@
         <v>629349</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="H17" s="7">
         <v>751</v>
@@ -5742,13 +5772,13 @@
         <v>601217</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="M17" s="7">
         <v>1355</v>
@@ -5757,13 +5787,13 @@
         <v>1230566</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5831,13 +5861,13 @@
         <v>1112086</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="H19" s="7">
         <v>2774</v>
@@ -5846,28 +5876,28 @@
         <v>1830400</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="M19" s="7">
         <v>4098</v>
       </c>
       <c r="N19" s="7">
-        <v>2942487</v>
+        <v>2942486</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5882,13 +5912,13 @@
         <v>2273142</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>153</v>
+        <v>65</v>
       </c>
       <c r="H20" s="7">
         <v>2593</v>
@@ -5897,13 +5927,13 @@
         <v>2005181</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="M20" s="7">
         <v>4645</v>
@@ -5912,13 +5942,13 @@
         <v>4278322</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5960,7 +5990,7 @@
         <v>8743</v>
       </c>
       <c r="N21" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5974,7 +6004,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/POLIPATOLOGIA-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/POLIPATOLOGIA-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF1225B7-F993-4253-ADD6-2BE3FEFD4305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{381560CE-8C6A-4D3B-BBD3-0897539E7B37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{504EE5DB-CBE7-4B43-9714-D354FF2FCD32}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A5D770FD-8826-4EA7-954E-0E8546358262}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="439">
   <si>
     <t>Población con dos o más enfermedades crónicas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -77,28 +77,28 @@
     <t>20,05%</t>
   </si>
   <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
   </si>
   <si>
     <t>32,06%</t>
   </si>
   <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
   </si>
   <si>
     <t>25,98%</t>
   </si>
   <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,1243 +107,1237 @@
     <t>79,95%</t>
   </si>
   <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
   </si>
   <si>
     <t>67,94%</t>
   </si>
   <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
   </si>
   <si>
     <t>74,02%</t>
   </si>
   <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>18,61%</t>
   </si>
   <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
   </si>
   <si>
     <t>29,55%</t>
   </si>
   <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
   </si>
   <si>
     <t>24,07%</t>
   </si>
   <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
   </si>
   <si>
     <t>81,39%</t>
   </si>
   <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
   </si>
   <si>
     <t>70,45%</t>
   </si>
   <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
   </si>
   <si>
     <t>75,93%</t>
   </si>
   <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>19,97%</t>
   </si>
   <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
   </si>
   <si>
     <t>33,96%</t>
   </si>
   <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con dos o más enfermedades crónicas en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>67,26%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>Población con dos o más enfermedades crónicas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>67,46%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>76,8%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>62,64%</t>
+  </si>
+  <si>
+    <t>59,69%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>Población con dos o más enfermedades crónicas en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
     <t>30,92%</t>
   </si>
   <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
   </si>
   <si>
     <t>69,08%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con dos o más enfermedades crónicas en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>56,87%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>Población con dos o más enfermedades crónicas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>65,25%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
-  </si>
-  <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>62,64%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>71,59%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>Población con dos o más enfermedades crónicas en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>61,83%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
   </si>
   <si>
     <t>52,28%</t>
@@ -1773,7 +1767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35296A01-951B-4848-929F-B4BB70B645F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BBD7395-9487-4656-A5B6-69B087E1653F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2720,7 +2714,7 @@
         <v>2552</v>
       </c>
       <c r="D20" s="7">
-        <v>2628561</v>
+        <v>2628560</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>116</v>
@@ -2771,7 +2765,7 @@
         <v>3214</v>
       </c>
       <c r="D21" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2836,7 +2830,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87024485-5C43-43FD-AA11-C589D96C2C53}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3857BAF6-09B5-4A44-85B4-16C2352AB9F1}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2966,7 +2960,7 @@
         <v>128</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="H4" s="7">
         <v>46</v>
@@ -2975,13 +2969,13 @@
         <v>51534</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>73</v>
@@ -2990,13 +2984,13 @@
         <v>76066</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3011,13 +3005,13 @@
         <v>91233</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H5" s="7">
         <v>53</v>
@@ -3026,13 +3020,13 @@
         <v>60371</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>148</v>
@@ -3041,13 +3035,13 @@
         <v>151604</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3115,13 +3109,13 @@
         <v>156719</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H7" s="7">
         <v>236</v>
@@ -3130,13 +3124,13 @@
         <v>252384</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>379</v>
@@ -3145,13 +3139,13 @@
         <v>409103</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3166,13 +3160,13 @@
         <v>430985</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>315</v>
@@ -3181,13 +3175,13 @@
         <v>332761</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>724</v>
@@ -3196,13 +3190,13 @@
         <v>763746</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3270,13 +3264,13 @@
         <v>243885</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H10" s="7">
         <v>359</v>
@@ -3285,13 +3279,13 @@
         <v>392591</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M10" s="7">
         <v>582</v>
@@ -3300,13 +3294,13 @@
         <v>636476</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>171</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3321,13 +3315,13 @@
         <v>774062</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H11" s="7">
         <v>581</v>
@@ -3336,13 +3330,13 @@
         <v>639593</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="M11" s="7">
         <v>1294</v>
@@ -3351,13 +3345,13 @@
         <v>1413655</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3425,13 +3419,13 @@
         <v>163289</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="H13" s="7">
         <v>245</v>
@@ -3440,13 +3434,13 @@
         <v>267639</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="M13" s="7">
         <v>388</v>
@@ -3455,13 +3449,13 @@
         <v>430928</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3476,13 +3470,13 @@
         <v>594334</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="H14" s="7">
         <v>460</v>
@@ -3491,13 +3485,13 @@
         <v>509535</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="M14" s="7">
         <v>1006</v>
@@ -3506,13 +3500,13 @@
         <v>1103869</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>155</v>
+        <v>191</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3580,13 +3574,13 @@
         <v>244429</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H16" s="7">
         <v>393</v>
@@ -3595,13 +3589,13 @@
         <v>412429</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="M16" s="7">
         <v>618</v>
@@ -3610,13 +3604,13 @@
         <v>656858</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3631,13 +3625,13 @@
         <v>703310</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H17" s="7">
         <v>610</v>
@@ -3646,13 +3640,13 @@
         <v>639472</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M17" s="7">
         <v>1295</v>
@@ -3661,13 +3655,13 @@
         <v>1342782</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3735,13 +3729,13 @@
         <v>832854</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H19" s="7">
         <v>1279</v>
@@ -3750,13 +3744,13 @@
         <v>1376577</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M19" s="7">
         <v>2040</v>
@@ -3765,13 +3759,13 @@
         <v>2209431</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3786,13 +3780,13 @@
         <v>2593925</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H20" s="7">
         <v>2019</v>
@@ -3801,13 +3795,13 @@
         <v>2181732</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M20" s="7">
         <v>4467</v>
@@ -3816,13 +3810,13 @@
         <v>4775657</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3899,7 +3893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BFFE61B-3951-44A2-A34F-6D0CE1E78776}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBA31B5C-DE8C-41F5-A29C-B39C02398416}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3916,7 +3910,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4023,13 +4017,13 @@
         <v>32739</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H4" s="7">
         <v>45</v>
@@ -4038,13 +4032,13 @@
         <v>47160</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M4" s="7">
         <v>77</v>
@@ -4053,13 +4047,13 @@
         <v>79899</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4074,13 +4068,13 @@
         <v>83807</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="H5" s="7">
         <v>70</v>
@@ -4089,13 +4083,13 @@
         <v>66200</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="M5" s="7">
         <v>151</v>
@@ -4104,13 +4098,13 @@
         <v>150007</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4178,13 +4172,13 @@
         <v>123371</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="H7" s="7">
         <v>195</v>
@@ -4193,13 +4187,13 @@
         <v>209498</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="M7" s="7">
         <v>319</v>
@@ -4208,13 +4202,13 @@
         <v>332869</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4229,13 +4223,13 @@
         <v>434883</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="H8" s="7">
         <v>356</v>
@@ -4244,13 +4238,13 @@
         <v>349981</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="M8" s="7">
         <v>771</v>
@@ -4259,13 +4253,13 @@
         <v>784864</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4333,13 +4327,13 @@
         <v>237193</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="H10" s="7">
         <v>344</v>
@@ -4348,13 +4342,13 @@
         <v>389674</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="M10" s="7">
         <v>574</v>
@@ -4363,13 +4357,13 @@
         <v>626867</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4384,13 +4378,13 @@
         <v>785238</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="H11" s="7">
         <v>633</v>
@@ -4399,13 +4393,13 @@
         <v>653239</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="M11" s="7">
         <v>1354</v>
@@ -4414,13 +4408,13 @@
         <v>1438477</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4488,13 +4482,13 @@
         <v>167445</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="H13" s="7">
         <v>217</v>
@@ -4503,13 +4497,13 @@
         <v>244499</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>289</v>
+        <v>78</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="M13" s="7">
         <v>377</v>
@@ -4518,13 +4512,13 @@
         <v>411944</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4539,13 +4533,13 @@
         <v>592107</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H14" s="7">
         <v>519</v>
@@ -4554,13 +4548,13 @@
         <v>540512</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>297</v>
+        <v>86</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="M14" s="7">
         <v>1055</v>
@@ -4569,13 +4563,13 @@
         <v>1132619</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4643,13 +4637,13 @@
         <v>248861</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H16" s="7">
         <v>336</v>
@@ -4658,13 +4652,13 @@
         <v>388951</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="M16" s="7">
         <v>587</v>
@@ -4673,13 +4667,13 @@
         <v>637812</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4694,13 +4688,13 @@
         <v>688706</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H17" s="7">
         <v>623</v>
@@ -4709,13 +4703,13 @@
         <v>654828</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="M17" s="7">
         <v>1304</v>
@@ -4724,13 +4718,13 @@
         <v>1343534</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4798,13 +4792,13 @@
         <v>809608</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="H19" s="7">
         <v>1137</v>
@@ -4813,13 +4807,13 @@
         <v>1279781</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="M19" s="7">
         <v>1934</v>
@@ -4828,13 +4822,13 @@
         <v>2089390</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4849,13 +4843,13 @@
         <v>2584742</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H20" s="7">
         <v>2201</v>
@@ -4864,13 +4858,13 @@
         <v>2264761</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="M20" s="7">
         <v>4635</v>
@@ -4879,13 +4873,13 @@
         <v>4849502</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4962,7 +4956,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC87177-8652-44DD-8B7E-E927B1539183}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD9D447D-D3EF-4BF6-974D-A21A9DAAA934}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4979,7 +4973,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5086,13 +5080,13 @@
         <v>41716</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="H4" s="7">
         <v>140</v>
@@ -5101,13 +5095,13 @@
         <v>69541</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="M4" s="7">
         <v>194</v>
@@ -5116,13 +5110,13 @@
         <v>111256</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5137,13 +5131,13 @@
         <v>60266</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>348</v>
       </c>
       <c r="H5" s="7">
         <v>103</v>
@@ -5152,13 +5146,13 @@
         <v>61192</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>351</v>
       </c>
       <c r="M5" s="7">
         <v>167</v>
@@ -5167,13 +5161,13 @@
         <v>121459</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5241,13 +5235,13 @@
         <v>203066</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="H7" s="7">
         <v>534</v>
@@ -5256,13 +5250,13 @@
         <v>280360</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="M7" s="7">
         <v>803</v>
@@ -5271,13 +5265,13 @@
         <v>483427</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>361</v>
+        <v>166</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5292,13 +5286,13 @@
         <v>346757</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="H8" s="7">
         <v>464</v>
@@ -5307,13 +5301,13 @@
         <v>339607</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="M8" s="7">
         <v>807</v>
@@ -5322,13 +5316,13 @@
         <v>686363</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>370</v>
+        <v>172</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5396,13 +5390,13 @@
         <v>289499</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="H10" s="7">
         <v>771</v>
@@ -5411,13 +5405,13 @@
         <v>474097</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="M10" s="7">
         <v>1113</v>
@@ -5426,13 +5420,13 @@
         <v>763596</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5447,13 +5441,13 @@
         <v>749749</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="H11" s="7">
         <v>746</v>
@@ -5462,13 +5456,13 @@
         <v>585982</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="M11" s="7">
         <v>1368</v>
@@ -5477,13 +5471,13 @@
         <v>1335731</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5551,13 +5545,13 @@
         <v>241751</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="H13" s="7">
         <v>518</v>
@@ -5566,13 +5560,13 @@
         <v>457188</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="M13" s="7">
         <v>775</v>
@@ -5581,13 +5575,13 @@
         <v>698939</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5602,13 +5596,13 @@
         <v>487021</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="H14" s="7">
         <v>529</v>
@@ -5617,13 +5611,13 @@
         <v>417183</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="M14" s="7">
         <v>948</v>
@@ -5632,13 +5626,13 @@
         <v>904203</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5706,13 +5700,13 @@
         <v>336054</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H16" s="7">
         <v>811</v>
@@ -5721,13 +5715,13 @@
         <v>549215</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="M16" s="7">
         <v>1213</v>
@@ -5736,13 +5730,13 @@
         <v>885269</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5757,13 +5751,13 @@
         <v>629349</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="H17" s="7">
         <v>751</v>
@@ -5772,13 +5766,13 @@
         <v>601217</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="M17" s="7">
         <v>1355</v>
@@ -5787,13 +5781,13 @@
         <v>1230566</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5861,13 +5855,13 @@
         <v>1112086</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>55</v>
+        <v>423</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="H19" s="7">
         <v>2774</v>
@@ -5876,13 +5870,13 @@
         <v>1830400</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="M19" s="7">
         <v>4098</v>
@@ -5891,13 +5885,13 @@
         <v>2942486</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5912,13 +5906,13 @@
         <v>2273142</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>65</v>
+        <v>432</v>
       </c>
       <c r="H20" s="7">
         <v>2593</v>
@@ -5927,13 +5921,13 @@
         <v>2005181</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>437</v>
       </c>
       <c r="M20" s="7">
         <v>4645</v>
@@ -5942,13 +5936,13 @@
         <v>4278322</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/POLIPATOLOGIA-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/POLIPATOLOGIA-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{381560CE-8C6A-4D3B-BBD3-0897539E7B37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C2CCC3A-06C0-4032-8A4E-B707CF93E085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A5D770FD-8826-4EA7-954E-0E8546358262}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{839D5327-8E02-46C7-B488-B4FF857AF912}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="431">
   <si>
     <t>Población con dos o más enfermedades crónicas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,1285 +77,1261 @@
     <t>20,05%</t>
   </si>
   <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
   </si>
   <si>
     <t>32,06%</t>
   </si>
   <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
   </si>
   <si>
     <t>25,98%</t>
   </si>
   <si>
-    <t>20,75%</t>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>74,22%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>70,86%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con dos o más enfermedades crónicas en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>59,7%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>59,68%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>Población con dos o más enfermedades crónicas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>76,8%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>62,64%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>Población con dos o más enfermedades crónicas en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
   </si>
   <si>
     <t>31,29%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
   </si>
   <si>
     <t>68,71%</t>
   </si>
   <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
   </si>
   <si>
     <t>31,11%</t>
   </si>
   <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con dos o más enfermedades crónicas en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>56,87%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>68,99%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>67,26%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>Población con dos o más enfermedades crónicas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>65,25%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>62,64%</t>
-  </si>
-  <si>
-    <t>59,69%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>70,43%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>62,24%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>Población con dos o más enfermedades crónicas en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
+    <t>55,65%</t>
   </si>
   <si>
     <t>56,4%</t>
   </si>
   <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>61,55%</t>
   </si>
   <si>
     <t>34,81%</t>
   </si>
   <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
   </si>
   <si>
     <t>47,74%</t>
   </si>
   <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
   </si>
   <si>
     <t>41,84%</t>
   </si>
   <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
   </si>
   <si>
     <t>65,19%</t>
   </si>
   <si>
-    <t>61,83%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
   </si>
   <si>
     <t>52,26%</t>
   </si>
   <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
   </si>
   <si>
     <t>58,16%</t>
   </si>
   <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
   </si>
   <si>
     <t>47,72%</t>
   </si>
   <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
   </si>
   <si>
     <t>40,75%</t>
   </si>
   <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
   </si>
   <si>
     <t>52,28%</t>
   </si>
   <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
   </si>
   <si>
     <t>59,25%</t>
   </si>
   <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
   </si>
 </sst>
 </file>
@@ -1767,7 +1743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BBD7395-9487-4656-A5B6-69B087E1653F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3507A9C-6D37-4B14-9EEC-FA28ECF05CE4}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2681,13 +2657,13 @@
         <v>1132361</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>1763</v>
@@ -2696,13 +2672,13 @@
         <v>1780344</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2714,16 +2690,16 @@
         <v>2552</v>
       </c>
       <c r="D20" s="7">
-        <v>2628560</v>
+        <v>2628561</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>2196</v>
@@ -2732,28 +2708,28 @@
         <v>2246837</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>4748</v>
       </c>
       <c r="N20" s="7">
-        <v>4875397</v>
+        <v>4875396</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2765,7 +2741,7 @@
         <v>3214</v>
       </c>
       <c r="D21" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2795,7 +2771,7 @@
         <v>6511</v>
       </c>
       <c r="N21" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2809,7 +2785,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2830,7 +2806,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3857BAF6-09B5-4A44-85B4-16C2352AB9F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{771BD102-6423-43F4-84F4-A123A0B5F722}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2847,7 +2823,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2954,13 +2930,13 @@
         <v>24532</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H4" s="7">
         <v>46</v>
@@ -2969,13 +2945,13 @@
         <v>51534</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M4" s="7">
         <v>73</v>
@@ -2984,13 +2960,13 @@
         <v>76066</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3005,10 +2981,10 @@
         <v>91233</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>136</v>
@@ -3294,13 +3270,13 @@
         <v>636476</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>92</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3315,13 +3291,13 @@
         <v>774062</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H11" s="7">
         <v>581</v>
@@ -3330,13 +3306,13 @@
         <v>639593</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M11" s="7">
         <v>1294</v>
@@ -3345,13 +3321,13 @@
         <v>1413655</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>101</v>
+        <v>176</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>174</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3419,13 +3395,13 @@
         <v>163289</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H13" s="7">
         <v>245</v>
@@ -3434,13 +3410,13 @@
         <v>267639</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M13" s="7">
         <v>388</v>
@@ -3449,13 +3425,13 @@
         <v>430928</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3470,13 +3446,13 @@
         <v>594334</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H14" s="7">
         <v>460</v>
@@ -3485,13 +3461,13 @@
         <v>509535</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M14" s="7">
         <v>1006</v>
@@ -3500,13 +3476,13 @@
         <v>1103869</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3574,13 +3550,13 @@
         <v>244429</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H16" s="7">
         <v>393</v>
@@ -3589,13 +3565,13 @@
         <v>412429</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M16" s="7">
         <v>618</v>
@@ -3604,13 +3580,13 @@
         <v>656858</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3625,13 +3601,13 @@
         <v>703310</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H17" s="7">
         <v>610</v>
@@ -3640,13 +3616,13 @@
         <v>639472</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M17" s="7">
         <v>1295</v>
@@ -3655,13 +3631,13 @@
         <v>1342782</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3729,13 +3705,13 @@
         <v>832854</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>212</v>
+        <v>144</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H19" s="7">
         <v>1279</v>
@@ -3744,13 +3720,13 @@
         <v>1376577</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M19" s="7">
         <v>2040</v>
@@ -3759,13 +3735,13 @@
         <v>2209431</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3780,13 +3756,13 @@
         <v>2593925</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>222</v>
+        <v>154</v>
       </c>
       <c r="H20" s="7">
         <v>2019</v>
@@ -3872,7 +3848,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3893,7 +3869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBA31B5C-DE8C-41F5-A29C-B39C02398416}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679388BA-B016-4F01-94A2-8ADE0E7BF1C8}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4497,13 +4473,13 @@
         <v>244499</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>78</v>
+        <v>287</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M13" s="7">
         <v>377</v>
@@ -4515,10 +4491,10 @@
         <v>143</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4533,13 +4509,13 @@
         <v>592107</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H14" s="7">
         <v>519</v>
@@ -4548,13 +4524,13 @@
         <v>540512</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>86</v>
+        <v>295</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M14" s="7">
         <v>1055</v>
@@ -4566,10 +4542,10 @@
         <v>152</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4637,13 +4613,13 @@
         <v>248861</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H16" s="7">
         <v>336</v>
@@ -4652,13 +4628,13 @@
         <v>388951</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>303</v>
+        <v>238</v>
       </c>
       <c r="M16" s="7">
         <v>587</v>
@@ -4667,13 +4643,13 @@
         <v>637812</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4688,13 +4664,13 @@
         <v>688706</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H17" s="7">
         <v>623</v>
@@ -4703,10 +4679,10 @@
         <v>654828</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>311</v>
+        <v>246</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>312</v>
@@ -4792,13 +4768,13 @@
         <v>809608</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="H19" s="7">
         <v>1137</v>
@@ -4807,13 +4783,13 @@
         <v>1279781</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="M19" s="7">
         <v>1934</v>
@@ -4822,13 +4798,13 @@
         <v>2089390</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4843,13 +4819,13 @@
         <v>2584742</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H20" s="7">
         <v>2201</v>
@@ -4858,13 +4834,13 @@
         <v>2264761</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="M20" s="7">
         <v>4635</v>
@@ -4873,13 +4849,13 @@
         <v>4849502</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4935,7 +4911,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4956,7 +4932,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD9D447D-D3EF-4BF6-974D-A21A9DAAA934}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C25647-3469-4B9C-8BC3-9B4A9B40A306}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4973,7 +4949,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5080,13 +5056,13 @@
         <v>41716</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>336</v>
+        <v>218</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="H4" s="7">
         <v>140</v>
@@ -5095,13 +5071,13 @@
         <v>69541</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="M4" s="7">
         <v>194</v>
@@ -5110,13 +5086,13 @@
         <v>111256</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5131,13 +5107,13 @@
         <v>60266</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>346</v>
+        <v>226</v>
       </c>
       <c r="H5" s="7">
         <v>103</v>
@@ -5146,13 +5122,13 @@
         <v>61192</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="M5" s="7">
         <v>167</v>
@@ -5161,13 +5137,13 @@
         <v>121459</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5235,13 +5211,13 @@
         <v>203066</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="H7" s="7">
         <v>534</v>
@@ -5250,13 +5226,13 @@
         <v>280360</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="M7" s="7">
         <v>803</v>
@@ -5265,13 +5241,13 @@
         <v>483427</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>166</v>
+        <v>351</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5286,13 +5262,13 @@
         <v>346757</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="H8" s="7">
         <v>464</v>
@@ -5301,13 +5277,13 @@
         <v>339607</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="M8" s="7">
         <v>807</v>
@@ -5316,13 +5292,13 @@
         <v>686363</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>172</v>
+        <v>360</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5390,13 +5366,13 @@
         <v>289499</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="H10" s="7">
         <v>771</v>
@@ -5405,13 +5381,13 @@
         <v>474097</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="M10" s="7">
         <v>1113</v>
@@ -5420,13 +5396,13 @@
         <v>763596</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5441,13 +5417,13 @@
         <v>749749</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="H11" s="7">
         <v>746</v>
@@ -5456,13 +5432,13 @@
         <v>585982</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="M11" s="7">
         <v>1368</v>
@@ -5471,13 +5447,13 @@
         <v>1335731</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5545,13 +5521,13 @@
         <v>241751</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="H13" s="7">
         <v>518</v>
@@ -5560,13 +5536,13 @@
         <v>457188</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="M13" s="7">
         <v>775</v>
@@ -5575,13 +5551,13 @@
         <v>698939</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5596,13 +5572,13 @@
         <v>487021</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="H14" s="7">
         <v>529</v>
@@ -5611,13 +5587,13 @@
         <v>417183</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="M14" s="7">
         <v>948</v>
@@ -5626,13 +5602,13 @@
         <v>904203</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5700,13 +5676,13 @@
         <v>336054</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="H16" s="7">
         <v>811</v>
@@ -5715,13 +5691,13 @@
         <v>549215</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="M16" s="7">
         <v>1213</v>
@@ -5730,13 +5706,13 @@
         <v>885269</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5751,13 +5727,13 @@
         <v>629349</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="H17" s="7">
         <v>751</v>
@@ -5766,13 +5742,13 @@
         <v>601217</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="M17" s="7">
         <v>1355</v>
@@ -5781,13 +5757,13 @@
         <v>1230566</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5855,13 +5831,13 @@
         <v>1112086</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>423</v>
+        <v>145</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="H19" s="7">
         <v>2774</v>
@@ -5870,28 +5846,28 @@
         <v>1830400</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="M19" s="7">
         <v>4098</v>
       </c>
       <c r="N19" s="7">
-        <v>2942486</v>
+        <v>2942487</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5906,13 +5882,13 @@
         <v>2273142</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>432</v>
+        <v>153</v>
       </c>
       <c r="H20" s="7">
         <v>2593</v>
@@ -5921,13 +5897,13 @@
         <v>2005181</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="M20" s="7">
         <v>4645</v>
@@ -5936,13 +5912,13 @@
         <v>4278322</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5984,7 +5960,7 @@
         <v>8743</v>
       </c>
       <c r="N21" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5998,7 +5974,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
